--- a/final 완성된 서류/1조final 내부 스케줄.xlsx
+++ b/final 완성된 서류/1조final 내부 스케줄.xlsx
@@ -19,128 +19,152 @@
     <x:t>&lt;----------------- 마이페이지 ------------------&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>회원관리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;---------------지도 api 적용---------------&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----------------개발 및 간단한 css------------------&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;--------------지도 마커 생성 및 경로 지정----------------&gt;</x:t>
+    <x:t>2번</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이현재</x:t>
+  </x:si>
+  <x:si>
+    <x:t>날씨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최민수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ㅑ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이헤수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이혜수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김태이</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시판</x:t>
+  </x:si>
+  <x:si>
+    <x:t>휴식</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오다혜</x:t>
+  </x:si>
+  <x:si>
+    <x:t>환율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>항공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내가작성한 글 가져오기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 합치기/결과 보기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----회원관리-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지/메인/패키지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도 마커 생성 및 경로지정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-----날씨----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----환율-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입/로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;벤치마킹리서치&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인(내부적로그인)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;아이템 기획&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>팔로워/팔로잉 표시</x:t>
   </x:si>
   <x:si>
     <x:t>PPT 작성
 및 발표</x:t>
   </x:si>
   <x:si>
-    <x:t>로그인(내부적로그인)</x:t>
-  </x:si>
-  <x:si>
     <x:t>지도 api 적용</x:t>
   </x:si>
   <x:si>
-    <x:t>회원가입/로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;벤치마킹리서치&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;아이템 기획&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>팔로워/팔로잉 표시</x:t>
+    <x:t>가계부, 체크리스트</x:t>
   </x:si>
   <x:si>
     <x:t>고객센터 1:1 문의</x:t>
   </x:si>
   <x:si>
-    <x:t>가계부, 체크리스트</x:t>
+    <x:t>회원정보/탈퇴가져오기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 테스트 및 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>────────▶</x:t>
+  </x:si>
+  <x:si>
+    <x:t>요구분석세부계획서</x:t>
   </x:si>
   <x:si>
     <x:t>장소 검색,리스트뷰</x:t>
   </x:si>
   <x:si>
-    <x:t>────────▶</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 테스트 및 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원정보/탈퇴가져오기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>요구분석세부계획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최민수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이헤수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ㅑ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이혜수</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2번</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이현재</x:t>
-  </x:si>
-  <x:si>
-    <x:t>날씨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>디자인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>환율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FAQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김태이</x:t>
-  </x:si>
-  <x:si>
-    <x:t>휴식</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오다혜</x:t>
-  </x:si>
-  <x:si>
-    <x:t>항공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALL</x:t>
+    <x:t>&lt;----------------개발 및 간단한 css------------------&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;--------------지도 마커 생성 및 경로 지정----------------&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;------안 끝난 파트 돕기 및 css작업-------&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----게시글관리(목록, 목록 조회,게시글 삭제)-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;---패키지 목록 조회,등록,수정,삭제------&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>각자 담당 페이지 스토리보드 구축 후 병합 및 확인</x:t>
@@ -152,43 +176,70 @@
     <x:t>&lt;---------메인 화면 구축-----------&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>&lt;---패키지 목록 조회,등록,수정,삭제------&gt;</x:t>
+    <x:t>&lt;----플래너 공유-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래너공유,동행,여행기,고객센터</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----요구분석세부계획서---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;플래너공유,동행,여행기,고객센터&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>로그인/회원가입/항공/환율/날씨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>패키지 목록 조회,등록, 수정,삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----스케줄기능-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----1:1문의-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----동행게시판-----&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;-자기 파트 총 확인 및 수정-&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>&lt;----플래너 공유-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----요구분석세부계획서---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래너공유,동행,여행기,고객센터</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;플래너공유,동행,여행기,고객센터&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>로그인/회원가입/항공/환율/날씨</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----스케줄기능-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>패키지 목록 조회,등록, 수정,삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----1:1문의-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----동행게시판-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----게시글관리(목록, 목록 조회,게시글 삭제)-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;------안 끝난 파트 돕기 및 css작업-------&gt;</x:t>
+    <x:t>&lt;----FAQ-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppt 작성 및 마무리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;--- 플래너작성---&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----공지사항-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입(내부적회원가입)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;--가계부,체크리스트--&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;----항공-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최종 합치기 및 결과 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 복원, 블라인드 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좋아요 누른 글 가져오기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;---------------지도 api 적용---------------&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-- 마이페이지/메인/패키지게시판 --&gt;,스케줄</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;---로그인/회원가입/항공/환율/날씨---&gt;</x:t>
@@ -197,321 +248,270 @@
     <x:t>&lt;---게시글관리(복원,블라인드처리)---&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>&lt;-- 마이페이지/메인/패키지게시판 --&gt;,스케줄</x:t>
+    <x:t>12월12일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>db스키마설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공지사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스케줄 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>스토리보드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1대1문의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내부회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>외부로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면</x:t>
   </x:si>
   <x:si>
     <x:t>동행 게시판</x:t>
-  </x:si>
-  <x:si>
-    <x:t>외부로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공지사항</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">관리자페이지
 </x:t>
   </x:si>
   <x:si>
-    <x:t>12월12일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>총 테스트</x:t>
+    <x:t>12월11일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>아이템기획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체 디자인</x:t>
   </x:si>
   <x:si>
     <x:t>메인화면 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>스토리보드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>db스키마설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1대1문의</x:t>
+    <x:t>회원관리</x:t>
   </x:si>
   <x:si>
     <x:t>───▶</x:t>
   </x:si>
   <x:si>
-    <x:t>마이페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월11일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면</x:t>
-  </x:si>
-  <x:si>
-    <x:t>스케줄 기능</x:t>
-  </x:si>
-  <x:si>
     <x:t>12월9일</x:t>
   </x:si>
   <x:si>
-    <x:t>아이템기획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내부회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 디자인</x:t>
+    <x:t>11월23일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월25일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월15일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월24일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월18일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월4일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월10일</x:t>
   </x:si>
   <x:si>
     <x:t>11월27일</x:t>
   </x:si>
   <x:si>
+    <x:t>12월2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월21일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월28일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월26일</x:t>
+  </x:si>
+  <x:si>
     <x:t>명령도표작성</x:t>
   </x:si>
   <x:si>
-    <x:t>12월24일</x:t>
+    <x:t>12월13일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월27일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월25일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월8일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월20일</x:t>
   </x:si>
   <x:si>
     <x:t>12월22일</x:t>
   </x:si>
   <x:si>
-    <x:t>12월8일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월18일</x:t>
+    <x:t>12월26일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월16일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월1일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월23일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월6일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월30일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월19일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월17일</x:t>
   </x:si>
   <x:si>
     <x:t>12월3일</x:t>
   </x:si>
   <x:si>
-    <x:t>12월17일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월15일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월2일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월26일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월4일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월6일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월20일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월13일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월27일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월23일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월10일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월21일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월23일</x:t>
-  </x:si>
-  <x:si>
     <x:t>12월5일</x:t>
   </x:si>
   <x:si>
-    <x:t>12월25일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월25일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11월28일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월19일</x:t>
+    <x:t>1월8일</x:t>
   </x:si>
   <x:si>
     <x:t>11월24일</x:t>
   </x:si>
   <x:si>
-    <x:t>12월26일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월8일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월16일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월1일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월30일</x:t>
+    <x:t>문서작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래너 공유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PPT 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월5일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11월30일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>여행지정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부사항</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12월31일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내부로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월4일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>벤치마킹리서치</x:t>
   </x:si>
   <x:si>
     <x:t>12월14일</x:t>
   </x:si>
   <x:si>
+    <x:t>1월7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월1일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래너작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>플래너 작성</x:t>
+  </x:si>
+  <x:si>
     <x:t>11월29일</x:t>
   </x:si>
   <x:si>
     <x:t>12월28일</x:t>
   </x:si>
   <x:si>
-    <x:t>PPT 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>문서작성</x:t>
+    <x:t>12월29일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월3일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월6일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월9일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PPT작성</x:t>
   </x:si>
   <x:si>
     <x:t>관리자 페이지</x:t>
   </x:si>
   <x:si>
-    <x:t>플래너 공유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>벤치마킹리서치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내부로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월9일</x:t>
+    <x:t>1월2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>관리자페이지</x:t>
   </x:si>
   <x:si>
     <x:t>스케줄작성</x:t>
   </x:si>
   <x:si>
-    <x:t>11월30일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PPT작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월5일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월4일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월1일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월29일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월3일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월2일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부사항</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래너작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>여행지정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>플래너 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12월31일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>관리자페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1월6일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;--- 플래너작성---&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좋아요 누른 글 가져오기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ppt 작성 및 마무리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----항공-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 복원, 블라인드 처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입(내부적회원가입)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 합치기 및 결과 확인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----공지사항-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;--가계부,체크리스트--&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----FAQ-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도 마커 생성 및 경로지정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지/메인/패키지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최종 합치기/결과 보기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내가작성한 글 가져오기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----환율-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;-----날씨----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----회원관리-----&gt;</x:t>
+    <x:t>&lt;----장소검색,리스트뷰-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>&lt;-----패키지 게시판-------&gt;</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;-- 마이페이지/메인/패키지게시판 --&gt;</x:t>
   </x:si>
   <x:si>
+    <x:t>&lt;----고객센터, 1:1문의-----&gt;</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 목록,게시글 목록 조회, 삭제</x:t>
+  </x:si>
+  <x:si>
     <x:t>&lt;------관리자페이지------&gt;</x:t>
   </x:si>
   <x:si>
-    <x:t>&lt;----장소검색,리스트뷰-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;----고객센터, 1:1문의-----&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게시글 목록,게시글 목록 조회, 삭제</x:t>
-  </x:si>
-  <x:si>
     <x:t>&lt;---로그인(외부api사용)------&gt;</x:t>
-  </x:si>
-  <x:si>
-    <x:t>&lt;-----패키지 게시판-------&gt;</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="37">
+  <x:fonts count="35">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -1078,48 +1078,6 @@
           <x:sz val="11"/>
           <x:color rgb="ff699b37"/>
           <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffe06666"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ffe06666"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -2047,6 +2005,20 @@
       </x:bottom>
     </x:border>
     <x:border>
+      <x:left>
+        <x:color indexed="64"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color indexed="64"/>
+      </x:right>
+      <x:top>
+        <x:color indexed="64"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color indexed="64"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
       <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
@@ -2233,20 +2205,6 @@
         <x:color indexed="64"/>
       </x:left>
       <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
@@ -2416,7 +2374,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="253">
+  <x:cellXfs count="251">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -3138,19 +3096,12 @@
     <x:xf numFmtId="0" fontId="32" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -3192,14 +3143,14 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -3244,6 +3195,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3270,19 +3234,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3296,6 +3247,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3309,13 +3273,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -3348,19 +3312,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3374,6 +3325,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3387,19 +3351,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="7" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3413,6 +3364,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3478,13 +3442,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -3517,13 +3481,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -3556,19 +3520,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3582,6 +3533,19 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3595,19 +3559,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -3615,6 +3566,19 @@
       </mc:Choice>
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -4398,13 +4362,13 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="35" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="35" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="15" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
@@ -4450,32 +4414,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="36" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="36" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="36" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="36" fillId="6" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -4487,12 +4425,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="4" borderId="76" xfId="0" applyFill="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="4" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
@@ -5215,8 +5147,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:AZ66"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="AF49" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="AT58" activeCellId="0" sqref="AT58:AT58"/>
+    <x:sheetView tabSelected="1" topLeftCell="A28" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="L42" activeCellId="0" sqref="L42:L42"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.66015625" defaultRowHeight="16.399999999999999"/>
@@ -5322,148 +5254,148 @@
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="44"/>
       <x:c r="E3" s="23" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F3" s="23" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G3" s="23" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H3" s="23" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I3" s="23" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="J3" s="23" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K3" s="23" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="L3" s="23" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="M3" s="23" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="N3" s="23" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O3" s="23" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="P3" s="23" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Q3" s="23" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="R3" s="23" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="S3" s="23" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="T3" s="23" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="U3" s="23" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="V3" s="23" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="W3" s="23" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="X3" s="23" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="Y3" s="23" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="Z3" s="23" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="AA3" s="23" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="AB3" s="23" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="AC3" s="23" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="AD3" s="23" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AE3" s="23" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="AF3" s="23" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AG3" s="23" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AH3" s="23" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AI3" s="23" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ3" s="23" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F3" s="23" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G3" s="23" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="H3" s="23" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I3" s="23" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J3" s="23" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="K3" s="23" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="L3" s="23" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="M3" s="23" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="N3" s="23" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="O3" s="23" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="P3" s="23" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q3" s="23" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="R3" s="23" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="S3" s="23" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="T3" s="23" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="U3" s="23" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="V3" s="23" t="s">
+      <x:c r="AK3" s="23" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="W3" s="23" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="X3" s="23" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="Y3" s="23" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="Z3" s="23" t="s">
+      <x:c r="AL3" s="23" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AM3" s="23" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="AA3" s="23" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="AB3" s="23" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="AC3" s="23" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="AD3" s="23" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="AE3" s="23" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="AF3" s="23" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="AG3" s="23" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="AH3" s="23" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="AI3" s="23" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="AJ3" s="23" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="AK3" s="23" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="AL3" s="23" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="AM3" s="23" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="AN3" s="23" t="s">
-        <x:v>114</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="AO3" s="23" t="s">
-        <x:v>129</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="AP3" s="23" t="s">
-        <x:v>111</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="AQ3" s="23" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="AR3" s="22" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="AS3" s="22" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="AT3" s="22" t="s">
-        <x:v>130</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="AU3" s="22" t="s">
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="AV3" s="22" t="s">
-        <x:v>125</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="AW3" s="22" t="s">
-        <x:v>138</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="AX3" s="22" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="AY3" s="22" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="AY3" s="22" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="AZ3" s="22" t="s">
-        <x:v>121</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:52" ht="18.699999999999999" customHeight="1">
@@ -5471,77 +5403,77 @@
       <x:c r="B4" s="1"/>
       <x:c r="C4" s="9"/>
       <x:c r="D4" s="10"/>
-      <x:c r="E4" s="149" t="s">
+      <x:c r="E4" s="151" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F4" s="154" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="G4" s="155"/>
+      <x:c r="H4" s="151" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I4" s="147" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="J4" s="148"/>
+      <x:c r="K4" s="160" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="L4" s="161"/>
+      <x:c r="M4" s="162" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="N4" s="163"/>
+      <x:c r="O4" s="14" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="P4" s="162" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="Q4" s="185"/>
+      <x:c r="R4" s="185"/>
+      <x:c r="S4" s="185"/>
+      <x:c r="T4" s="185"/>
+      <x:c r="U4" s="185"/>
+      <x:c r="V4" s="185"/>
+      <x:c r="W4" s="185"/>
+      <x:c r="X4" s="185"/>
+      <x:c r="Y4" s="185"/>
+      <x:c r="Z4" s="185"/>
+      <x:c r="AA4" s="185"/>
+      <x:c r="AB4" s="185"/>
+      <x:c r="AC4" s="185"/>
+      <x:c r="AD4" s="185"/>
+      <x:c r="AE4" s="185"/>
+      <x:c r="AF4" s="185"/>
+      <x:c r="AG4" s="185"/>
+      <x:c r="AH4" s="185"/>
+      <x:c r="AI4" s="182"/>
+      <x:c r="AJ4" s="182"/>
+      <x:c r="AK4" s="182"/>
+      <x:c r="AL4" s="182"/>
+      <x:c r="AM4" s="182"/>
+      <x:c r="AN4" s="182"/>
+      <x:c r="AO4" s="182"/>
+      <x:c r="AP4" s="182"/>
+      <x:c r="AQ4" s="182"/>
+      <x:c r="AR4" s="182"/>
+      <x:c r="AS4" s="183"/>
+      <x:c r="AT4" s="167" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="AU4" s="170" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="AV4" s="176"/>
+      <x:c r="AW4" s="171"/>
+      <x:c r="AX4" s="170" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="AY4" s="171"/>
+      <x:c r="AZ4" s="167" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="F4" s="152" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="G4" s="153"/>
-      <x:c r="H4" s="149" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="I4" s="145" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="J4" s="146"/>
-      <x:c r="K4" s="158" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="L4" s="159"/>
-      <x:c r="M4" s="160" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="N4" s="161"/>
-      <x:c r="O4" s="14" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="P4" s="160" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="Q4" s="183"/>
-      <x:c r="R4" s="183"/>
-      <x:c r="S4" s="183"/>
-      <x:c r="T4" s="183"/>
-      <x:c r="U4" s="183"/>
-      <x:c r="V4" s="183"/>
-      <x:c r="W4" s="183"/>
-      <x:c r="X4" s="183"/>
-      <x:c r="Y4" s="183"/>
-      <x:c r="Z4" s="183"/>
-      <x:c r="AA4" s="183"/>
-      <x:c r="AB4" s="183"/>
-      <x:c r="AC4" s="183"/>
-      <x:c r="AD4" s="183"/>
-      <x:c r="AE4" s="183"/>
-      <x:c r="AF4" s="183"/>
-      <x:c r="AG4" s="183"/>
-      <x:c r="AH4" s="183"/>
-      <x:c r="AI4" s="180"/>
-      <x:c r="AJ4" s="180"/>
-      <x:c r="AK4" s="180"/>
-      <x:c r="AL4" s="180"/>
-      <x:c r="AM4" s="180"/>
-      <x:c r="AN4" s="180"/>
-      <x:c r="AO4" s="180"/>
-      <x:c r="AP4" s="180"/>
-      <x:c r="AQ4" s="180"/>
-      <x:c r="AR4" s="180"/>
-      <x:c r="AS4" s="181"/>
-      <x:c r="AT4" s="165" t="s">
-        <x:v>151</x:v>
-      </x:c>
-      <x:c r="AU4" s="168" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AV4" s="174"/>
-      <x:c r="AW4" s="169"/>
-      <x:c r="AX4" s="168" t="s">
-        <x:v>141</x:v>
-      </x:c>
-      <x:c r="AY4" s="169"/>
-      <x:c r="AZ4" s="165" t="s">
-        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:52" ht="28.5" customHeight="1">
@@ -5549,380 +5481,380 @@
       <x:c r="B5" s="1"/>
       <x:c r="C5" s="9"/>
       <x:c r="D5" s="11" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E5" s="150"/>
-      <x:c r="F5" s="154"/>
-      <x:c r="G5" s="155"/>
-      <x:c r="H5" s="150"/>
-      <x:c r="I5" s="143" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="J5" s="144"/>
-      <x:c r="K5" s="143" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="L5" s="144"/>
-      <x:c r="M5" s="162" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="N5" s="163"/>
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E5" s="152"/>
+      <x:c r="F5" s="156"/>
+      <x:c r="G5" s="157"/>
+      <x:c r="H5" s="152"/>
+      <x:c r="I5" s="145" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="J5" s="146"/>
+      <x:c r="K5" s="145" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="L5" s="146"/>
+      <x:c r="M5" s="164" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="N5" s="165"/>
       <x:c r="O5" s="15" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="P5" s="177" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="P5" s="179" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q5" s="182"/>
-      <x:c r="R5" s="182"/>
-      <x:c r="S5" s="179"/>
-      <x:c r="T5" s="179"/>
-      <x:c r="U5" s="179"/>
-      <x:c r="V5" s="178"/>
-      <x:c r="W5" s="177" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="X5" s="178"/>
-      <x:c r="Y5" s="177" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="Z5" s="179"/>
-      <x:c r="AA5" s="179"/>
-      <x:c r="AB5" s="179"/>
-      <x:c r="AC5" s="183"/>
-      <x:c r="AD5" s="183"/>
-      <x:c r="AE5" s="183"/>
-      <x:c r="AF5" s="183"/>
-      <x:c r="AG5" s="183"/>
-      <x:c r="AH5" s="161"/>
-      <x:c r="AI5" s="184" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="AJ5" s="181"/>
-      <x:c r="AK5" s="184" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AL5" s="180"/>
-      <x:c r="AM5" s="180"/>
-      <x:c r="AN5" s="180"/>
-      <x:c r="AO5" s="180"/>
-      <x:c r="AP5" s="180"/>
-      <x:c r="AQ5" s="180"/>
-      <x:c r="AR5" s="180"/>
-      <x:c r="AS5" s="181"/>
-      <x:c r="AT5" s="166"/>
-      <x:c r="AU5" s="170"/>
-      <x:c r="AV5" s="175"/>
-      <x:c r="AW5" s="171"/>
-      <x:c r="AX5" s="170"/>
-      <x:c r="AY5" s="171"/>
-      <x:c r="AZ5" s="166"/>
+      <x:c r="Q5" s="184"/>
+      <x:c r="R5" s="184"/>
+      <x:c r="S5" s="181"/>
+      <x:c r="T5" s="181"/>
+      <x:c r="U5" s="181"/>
+      <x:c r="V5" s="180"/>
+      <x:c r="W5" s="179" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="X5" s="180"/>
+      <x:c r="Y5" s="179" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="Z5" s="181"/>
+      <x:c r="AA5" s="181"/>
+      <x:c r="AB5" s="181"/>
+      <x:c r="AC5" s="185"/>
+      <x:c r="AD5" s="185"/>
+      <x:c r="AE5" s="185"/>
+      <x:c r="AF5" s="185"/>
+      <x:c r="AG5" s="185"/>
+      <x:c r="AH5" s="163"/>
+      <x:c r="AI5" s="186" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AJ5" s="183"/>
+      <x:c r="AK5" s="186" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AL5" s="182"/>
+      <x:c r="AM5" s="182"/>
+      <x:c r="AN5" s="182"/>
+      <x:c r="AO5" s="182"/>
+      <x:c r="AP5" s="182"/>
+      <x:c r="AQ5" s="182"/>
+      <x:c r="AR5" s="182"/>
+      <x:c r="AS5" s="183"/>
+      <x:c r="AT5" s="168"/>
+      <x:c r="AU5" s="172"/>
+      <x:c r="AV5" s="177"/>
+      <x:c r="AW5" s="173"/>
+      <x:c r="AX5" s="172"/>
+      <x:c r="AY5" s="173"/>
+      <x:c r="AZ5" s="168"/>
     </x:row>
     <x:row r="6" spans="1:52" ht="28.5" customHeight="1">
       <x:c r="A6" s="1"/>
       <x:c r="B6" s="1"/>
       <x:c r="C6" s="9"/>
       <x:c r="D6" s="11" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E6" s="150"/>
-      <x:c r="F6" s="154"/>
-      <x:c r="G6" s="155"/>
-      <x:c r="H6" s="150"/>
-      <x:c r="I6" s="147" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="J6" s="148"/>
-      <x:c r="K6" s="147" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="L6" s="148"/>
-      <x:c r="M6" s="154"/>
-      <x:c r="N6" s="164"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E6" s="152"/>
+      <x:c r="F6" s="156"/>
+      <x:c r="G6" s="157"/>
+      <x:c r="H6" s="152"/>
+      <x:c r="I6" s="149" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="J6" s="150"/>
+      <x:c r="K6" s="149" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="L6" s="150"/>
+      <x:c r="M6" s="156"/>
+      <x:c r="N6" s="166"/>
       <x:c r="O6" s="16" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="P6" s="184" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="Q6" s="182"/>
-      <x:c r="R6" s="182"/>
-      <x:c r="S6" s="185"/>
-      <x:c r="T6" s="186" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="U6" s="185"/>
-      <x:c r="V6" s="186" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="W6" s="185"/>
-      <x:c r="X6" s="186" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="Y6" s="182"/>
-      <x:c r="Z6" s="182"/>
-      <x:c r="AA6" s="179"/>
-      <x:c r="AB6" s="179"/>
-      <x:c r="AC6" s="183"/>
-      <x:c r="AD6" s="183"/>
-      <x:c r="AE6" s="161"/>
-      <x:c r="AF6" s="160" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="P6" s="186" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="Q6" s="184"/>
+      <x:c r="R6" s="184"/>
+      <x:c r="S6" s="187"/>
+      <x:c r="T6" s="188" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="U6" s="187"/>
+      <x:c r="V6" s="188" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="W6" s="187"/>
+      <x:c r="X6" s="188" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="Y6" s="184"/>
+      <x:c r="Z6" s="184"/>
+      <x:c r="AA6" s="181"/>
+      <x:c r="AB6" s="181"/>
+      <x:c r="AC6" s="185"/>
+      <x:c r="AD6" s="185"/>
+      <x:c r="AE6" s="163"/>
+      <x:c r="AF6" s="162" t="s">
         <x:v>159</x:v>
       </x:c>
-      <x:c r="AG6" s="183"/>
-      <x:c r="AH6" s="183"/>
-      <x:c r="AI6" s="180"/>
-      <x:c r="AJ6" s="180"/>
-      <x:c r="AK6" s="180"/>
-      <x:c r="AL6" s="180"/>
-      <x:c r="AM6" s="181"/>
-      <x:c r="AN6" s="184" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="AO6" s="181"/>
-      <x:c r="AP6" s="184" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="AQ6" s="180"/>
-      <x:c r="AR6" s="180"/>
-      <x:c r="AS6" s="181"/>
-      <x:c r="AT6" s="166"/>
-      <x:c r="AU6" s="170"/>
-      <x:c r="AV6" s="175"/>
-      <x:c r="AW6" s="171"/>
-      <x:c r="AX6" s="170"/>
-      <x:c r="AY6" s="171"/>
-      <x:c r="AZ6" s="166"/>
+      <x:c r="AG6" s="185"/>
+      <x:c r="AH6" s="185"/>
+      <x:c r="AI6" s="182"/>
+      <x:c r="AJ6" s="182"/>
+      <x:c r="AK6" s="182"/>
+      <x:c r="AL6" s="182"/>
+      <x:c r="AM6" s="183"/>
+      <x:c r="AN6" s="186" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AO6" s="183"/>
+      <x:c r="AP6" s="186" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="AQ6" s="182"/>
+      <x:c r="AR6" s="182"/>
+      <x:c r="AS6" s="183"/>
+      <x:c r="AT6" s="168"/>
+      <x:c r="AU6" s="172"/>
+      <x:c r="AV6" s="177"/>
+      <x:c r="AW6" s="173"/>
+      <x:c r="AX6" s="172"/>
+      <x:c r="AY6" s="173"/>
+      <x:c r="AZ6" s="168"/>
     </x:row>
     <x:row r="7" spans="1:52" ht="28.5" customHeight="1">
       <x:c r="A7" s="1"/>
       <x:c r="B7" s="1"/>
       <x:c r="C7" s="9"/>
       <x:c r="D7" s="11" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E7" s="150"/>
-      <x:c r="F7" s="154"/>
-      <x:c r="G7" s="155"/>
-      <x:c r="H7" s="150"/>
-      <x:c r="I7" s="147" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="J7" s="148"/>
-      <x:c r="K7" s="147" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="L7" s="148"/>
-      <x:c r="M7" s="154"/>
-      <x:c r="N7" s="164"/>
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E7" s="152"/>
+      <x:c r="F7" s="156"/>
+      <x:c r="G7" s="157"/>
+      <x:c r="H7" s="152"/>
+      <x:c r="I7" s="149" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="J7" s="150"/>
+      <x:c r="K7" s="149" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="L7" s="150"/>
+      <x:c r="M7" s="156"/>
+      <x:c r="N7" s="166"/>
       <x:c r="O7" s="16" t="s">
-        <x:v>58</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="P7" s="19" t="s">
-        <x:v>144</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="Q7" s="21"/>
-      <x:c r="R7" s="177" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="S7" s="178"/>
-      <x:c r="T7" s="177" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="U7" s="179"/>
-      <x:c r="V7" s="179"/>
-      <x:c r="W7" s="178"/>
-      <x:c r="X7" s="177" t="s">
-        <x:v>142</x:v>
-      </x:c>
-      <x:c r="Y7" s="179"/>
-      <x:c r="Z7" s="178"/>
-      <x:c r="AA7" s="177" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="AB7" s="179"/>
-      <x:c r="AC7" s="161"/>
-      <x:c r="AD7" s="160" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="AE7" s="183"/>
-      <x:c r="AF7" s="161"/>
-      <x:c r="AG7" s="160" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="AH7" s="183"/>
+      <x:c r="R7" s="179" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S7" s="180"/>
+      <x:c r="T7" s="179" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="U7" s="181"/>
+      <x:c r="V7" s="181"/>
+      <x:c r="W7" s="180"/>
+      <x:c r="X7" s="179" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="Y7" s="181"/>
+      <x:c r="Z7" s="180"/>
+      <x:c r="AA7" s="179" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AB7" s="181"/>
+      <x:c r="AC7" s="163"/>
+      <x:c r="AD7" s="162" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="AE7" s="185"/>
+      <x:c r="AF7" s="163"/>
+      <x:c r="AG7" s="162" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AH7" s="185"/>
       <x:c r="AI7" s="20"/>
-      <x:c r="AJ7" s="184" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AK7" s="180"/>
-      <x:c r="AL7" s="180"/>
-      <x:c r="AM7" s="180"/>
-      <x:c r="AN7" s="180"/>
-      <x:c r="AO7" s="180"/>
-      <x:c r="AP7" s="180"/>
-      <x:c r="AQ7" s="180"/>
-      <x:c r="AR7" s="180"/>
-      <x:c r="AS7" s="181"/>
-      <x:c r="AT7" s="166"/>
-      <x:c r="AU7" s="170"/>
-      <x:c r="AV7" s="175"/>
-      <x:c r="AW7" s="171"/>
-      <x:c r="AX7" s="170"/>
-      <x:c r="AY7" s="171"/>
-      <x:c r="AZ7" s="166"/>
+      <x:c r="AJ7" s="186" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AK7" s="182"/>
+      <x:c r="AL7" s="182"/>
+      <x:c r="AM7" s="182"/>
+      <x:c r="AN7" s="182"/>
+      <x:c r="AO7" s="182"/>
+      <x:c r="AP7" s="182"/>
+      <x:c r="AQ7" s="182"/>
+      <x:c r="AR7" s="182"/>
+      <x:c r="AS7" s="183"/>
+      <x:c r="AT7" s="168"/>
+      <x:c r="AU7" s="172"/>
+      <x:c r="AV7" s="177"/>
+      <x:c r="AW7" s="173"/>
+      <x:c r="AX7" s="172"/>
+      <x:c r="AY7" s="173"/>
+      <x:c r="AZ7" s="168"/>
     </x:row>
     <x:row r="8" spans="1:52" ht="28.5" customHeight="1">
       <x:c r="A8" s="1"/>
       <x:c r="B8" s="1"/>
       <x:c r="C8" s="9"/>
       <x:c r="D8" s="12" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="E8" s="150"/>
-      <x:c r="F8" s="154"/>
-      <x:c r="G8" s="155"/>
-      <x:c r="H8" s="150"/>
-      <x:c r="I8" s="141" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="J8" s="142"/>
-      <x:c r="K8" s="141" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="L8" s="142"/>
-      <x:c r="M8" s="154"/>
-      <x:c r="N8" s="164"/>
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E8" s="152"/>
+      <x:c r="F8" s="156"/>
+      <x:c r="G8" s="157"/>
+      <x:c r="H8" s="152"/>
+      <x:c r="I8" s="143" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="J8" s="144"/>
+      <x:c r="K8" s="143" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="L8" s="144"/>
+      <x:c r="M8" s="156"/>
+      <x:c r="N8" s="166"/>
       <x:c r="O8" s="17" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="P8" s="177" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="Q8" s="179"/>
-      <x:c r="R8" s="182"/>
-      <x:c r="S8" s="179"/>
-      <x:c r="T8" s="178"/>
-      <x:c r="U8" s="177" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="V8" s="179"/>
-      <x:c r="W8" s="179"/>
-      <x:c r="X8" s="179"/>
-      <x:c r="Y8" s="178"/>
-      <x:c r="Z8" s="177" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="AA8" s="179"/>
-      <x:c r="AB8" s="178"/>
-      <x:c r="AC8" s="160" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="AD8" s="183"/>
-      <x:c r="AE8" s="183"/>
-      <x:c r="AF8" s="183"/>
-      <x:c r="AG8" s="161"/>
-      <x:c r="AH8" s="160" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="AI8" s="180"/>
-      <x:c r="AJ8" s="181"/>
-      <x:c r="AK8" s="184" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="P8" s="179" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="Q8" s="181"/>
+      <x:c r="R8" s="184"/>
+      <x:c r="S8" s="181"/>
+      <x:c r="T8" s="180"/>
+      <x:c r="U8" s="179" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="AL8" s="181"/>
-      <x:c r="AM8" s="184" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AN8" s="180"/>
-      <x:c r="AO8" s="180"/>
-      <x:c r="AP8" s="180"/>
-      <x:c r="AQ8" s="180"/>
-      <x:c r="AR8" s="180"/>
-      <x:c r="AS8" s="181"/>
-      <x:c r="AT8" s="166"/>
-      <x:c r="AU8" s="170"/>
-      <x:c r="AV8" s="175"/>
-      <x:c r="AW8" s="171"/>
-      <x:c r="AX8" s="170"/>
-      <x:c r="AY8" s="171"/>
-      <x:c r="AZ8" s="166"/>
+      <x:c r="V8" s="181"/>
+      <x:c r="W8" s="181"/>
+      <x:c r="X8" s="181"/>
+      <x:c r="Y8" s="180"/>
+      <x:c r="Z8" s="179" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="AA8" s="181"/>
+      <x:c r="AB8" s="180"/>
+      <x:c r="AC8" s="162" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="AD8" s="185"/>
+      <x:c r="AE8" s="185"/>
+      <x:c r="AF8" s="185"/>
+      <x:c r="AG8" s="163"/>
+      <x:c r="AH8" s="162" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AI8" s="182"/>
+      <x:c r="AJ8" s="183"/>
+      <x:c r="AK8" s="186" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AL8" s="183"/>
+      <x:c r="AM8" s="186" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="AN8" s="182"/>
+      <x:c r="AO8" s="182"/>
+      <x:c r="AP8" s="182"/>
+      <x:c r="AQ8" s="182"/>
+      <x:c r="AR8" s="182"/>
+      <x:c r="AS8" s="183"/>
+      <x:c r="AT8" s="168"/>
+      <x:c r="AU8" s="172"/>
+      <x:c r="AV8" s="177"/>
+      <x:c r="AW8" s="173"/>
+      <x:c r="AX8" s="172"/>
+      <x:c r="AY8" s="173"/>
+      <x:c r="AZ8" s="168"/>
     </x:row>
     <x:row r="9" spans="1:52" ht="34" customHeight="1">
       <x:c r="A9" s="1"/>
       <x:c r="B9" s="2"/>
       <x:c r="C9" s="7"/>
       <x:c r="D9" s="13" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E9" s="151"/>
-      <x:c r="F9" s="156"/>
-      <x:c r="G9" s="157"/>
-      <x:c r="H9" s="151"/>
-      <x:c r="I9" s="156" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J9" s="157"/>
-      <x:c r="K9" s="156" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="L9" s="157"/>
-      <x:c r="M9" s="156"/>
-      <x:c r="N9" s="157"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E9" s="153"/>
+      <x:c r="F9" s="158"/>
+      <x:c r="G9" s="159"/>
+      <x:c r="H9" s="153"/>
+      <x:c r="I9" s="158" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="J9" s="159"/>
+      <x:c r="K9" s="158" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="L9" s="159"/>
+      <x:c r="M9" s="158"/>
+      <x:c r="N9" s="159"/>
       <x:c r="O9" s="18" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="P9" s="177" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="Q9" s="178"/>
-      <x:c r="R9" s="177" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="S9" s="178"/>
-      <x:c r="T9" s="177" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="U9" s="179"/>
-      <x:c r="V9" s="178"/>
-      <x:c r="W9" s="177" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="X9" s="178"/>
-      <x:c r="Y9" s="177" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="P9" s="179" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Q9" s="180"/>
+      <x:c r="R9" s="179" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="S9" s="180"/>
+      <x:c r="T9" s="179" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="U9" s="181"/>
+      <x:c r="V9" s="180"/>
+      <x:c r="W9" s="179" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="X9" s="180"/>
+      <x:c r="Y9" s="179" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="Z9" s="181"/>
+      <x:c r="AA9" s="181"/>
+      <x:c r="AB9" s="181"/>
+      <x:c r="AC9" s="181"/>
+      <x:c r="AD9" s="181"/>
+      <x:c r="AE9" s="181"/>
+      <x:c r="AF9" s="181"/>
+      <x:c r="AG9" s="181"/>
+      <x:c r="AH9" s="181"/>
+      <x:c r="AI9" s="182"/>
+      <x:c r="AJ9" s="182"/>
+      <x:c r="AK9" s="182"/>
+      <x:c r="AL9" s="182"/>
+      <x:c r="AM9" s="183"/>
+      <x:c r="AN9" s="186" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="AO9" s="183"/>
+      <x:c r="AP9" s="186" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="Z9" s="179"/>
-      <x:c r="AA9" s="179"/>
-      <x:c r="AB9" s="179"/>
-      <x:c r="AC9" s="179"/>
-      <x:c r="AD9" s="179"/>
-      <x:c r="AE9" s="179"/>
-      <x:c r="AF9" s="179"/>
-      <x:c r="AG9" s="179"/>
-      <x:c r="AH9" s="179"/>
-      <x:c r="AI9" s="180"/>
-      <x:c r="AJ9" s="180"/>
-      <x:c r="AK9" s="180"/>
-      <x:c r="AL9" s="180"/>
-      <x:c r="AM9" s="181"/>
-      <x:c r="AN9" s="184" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="AO9" s="181"/>
-      <x:c r="AP9" s="184" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="AQ9" s="180"/>
-      <x:c r="AR9" s="180"/>
-      <x:c r="AS9" s="181"/>
-      <x:c r="AT9" s="167"/>
-      <x:c r="AU9" s="172"/>
-      <x:c r="AV9" s="176"/>
-      <x:c r="AW9" s="173"/>
-      <x:c r="AX9" s="172"/>
-      <x:c r="AY9" s="173"/>
-      <x:c r="AZ9" s="167"/>
+      <x:c r="AQ9" s="182"/>
+      <x:c r="AR9" s="182"/>
+      <x:c r="AS9" s="183"/>
+      <x:c r="AT9" s="169"/>
+      <x:c r="AU9" s="174"/>
+      <x:c r="AV9" s="178"/>
+      <x:c r="AW9" s="175"/>
+      <x:c r="AX9" s="174"/>
+      <x:c r="AY9" s="175"/>
+      <x:c r="AZ9" s="169"/>
     </x:row>
     <x:row r="10" spans="1:34">
       <x:c r="A10" s="1"/>
@@ -6079,40 +6011,40 @@
       <x:c r="H14" s="24"/>
       <x:c r="I14" s="24"/>
       <x:c r="J14" s="25" t="s">
-        <x:v>41</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="K14" s="83" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="L14" s="25" t="s">
-        <x:v>37</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="M14" s="84" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="N14" s="25" t="s">
-        <x:v>39</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="O14" s="85" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="P14" s="25" t="s">
-        <x:v>27</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="Q14" s="86" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="R14" s="25" t="s">
-        <x:v>30</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="S14" s="87" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="T14" s="36" t="s">
-        <x:v>19</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="U14" s="88" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="V14" s="24"/>
       <x:c r="W14" s="24"/>
@@ -6131,172 +6063,172 @@
     <x:row r="15" spans="1:52" ht="18.350000000000001">
       <x:c r="A15" s="9"/>
       <x:c r="B15" s="26" t="s">
-        <x:v>23</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C15" s="33" t="s">
-        <x:v>29</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D15" s="34" t="s">
-        <x:v>132</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="E15" s="62" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="F15" s="62" t="s">
+        <x:v>128</x:v>
+      </x:c>
+      <x:c r="G15" s="62" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="H15" s="62" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="I15" s="62" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="J15" s="62" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="K15" s="62" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="L15" s="62" t="s">
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="M15" s="62" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="N15" s="62" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="O15" s="62" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="P15" s="62" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Q15" s="62" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="R15" s="62" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="S15" s="62" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="T15" s="62" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="U15" s="62" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="V15" s="62" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="W15" s="62" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="X15" s="62" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="Y15" s="62" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="Z15" s="62" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="AA15" s="62" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="AB15" s="62" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="AC15" s="62" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="AD15" s="62" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AE15" s="62" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="AF15" s="62" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AG15" s="62" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AH15" s="62" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AI15" s="62" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AJ15" s="62" t="s">
         <x:v>100</x:v>
       </x:c>
-      <x:c r="F15" s="62" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="G15" s="62" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="H15" s="62" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="I15" s="62" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J15" s="62" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="K15" s="62" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="L15" s="62" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="M15" s="62" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="N15" s="62" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="O15" s="62" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="P15" s="62" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="Q15" s="62" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="R15" s="62" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="S15" s="62" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="T15" s="62" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="U15" s="62" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="V15" s="62" t="s">
+      <x:c r="AK15" s="62" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="W15" s="62" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="X15" s="62" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="Y15" s="62" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="Z15" s="62" t="s">
+      <x:c r="AL15" s="62" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AM15" s="62" t="s">
         <x:v>112</x:v>
       </x:c>
-      <x:c r="AA15" s="62" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="AB15" s="62" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="AC15" s="62" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="AD15" s="62" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="AE15" s="62" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="AF15" s="62" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="AG15" s="62" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="AH15" s="62" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="AI15" s="62" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="AJ15" s="62" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="AK15" s="62" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="AL15" s="62" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="AM15" s="62" t="s">
-        <x:v>96</x:v>
-      </x:c>
       <x:c r="AN15" s="62" t="s">
-        <x:v>114</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="AO15" s="62" t="s">
-        <x:v>129</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="AP15" s="62" t="s">
-        <x:v>111</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="AQ15" s="62" t="s">
         <x:v>136</x:v>
       </x:c>
       <x:c r="AR15" s="128" t="s">
-        <x:v>128</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="AS15" s="128" t="s">
-        <x:v>131</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="AT15" s="128" t="s">
-        <x:v>130</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="AU15" s="128" t="s">
-        <x:v>126</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="AV15" s="128" t="s">
-        <x:v>125</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="AW15" s="128" t="s">
-        <x:v>138</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="AX15" s="128" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="AY15" s="128" t="s">
         <x:v>127</x:v>
       </x:c>
-      <x:c r="AY15" s="128" t="s">
-        <x:v>108</x:v>
-      </x:c>
       <x:c r="AZ15" s="128" t="s">
-        <x:v>121</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:52" ht="16.75">
       <x:c r="A16" s="9"/>
-      <x:c r="B16" s="137" t="s">
-        <x:v>116</x:v>
+      <x:c r="B16" s="139" t="s">
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C16" s="42" t="s">
-        <x:v>77</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D16" s="63" t="s">
-        <x:v>77</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E16" s="82" t="s">
-        <x:v>71</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F16" s="64"/>
       <x:c r="G16" s="64"/>
@@ -6348,19 +6280,19 @@
     </x:row>
     <x:row r="17" spans="1:52" ht="21.5" customHeight="1">
       <x:c r="A17" s="9"/>
-      <x:c r="B17" s="139"/>
+      <x:c r="B17" s="141"/>
       <x:c r="C17" s="42" t="s">
-        <x:v>119</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D17" s="47" t="s">
-        <x:v>119</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="E17" s="69"/>
-      <x:c r="F17" s="190" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G17" s="191" t="s">
-        <x:v>71</x:v>
+      <x:c r="F17" s="192" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="G17" s="193" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="H17" s="45"/>
       <x:c r="I17" s="1"/>
@@ -6410,20 +6342,20 @@
     </x:row>
     <x:row r="18" spans="1:52" customHeight="1">
       <x:c r="A18" s="9"/>
-      <x:c r="B18" s="139"/>
-      <x:c r="C18" s="187" t="s">
-        <x:v>18</x:v>
+      <x:c r="B18" s="141"/>
+      <x:c r="C18" s="189" t="s">
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D18" s="46" t="s">
-        <x:v>150</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E18" s="71"/>
       <x:c r="F18" s="35"/>
       <x:c r="G18" s="8"/>
       <x:c r="H18" s="48"/>
-      <x:c r="I18" s="192"/>
-      <x:c r="J18" s="193" t="s">
-        <x:v>71</x:v>
+      <x:c r="I18" s="194"/>
+      <x:c r="J18" s="195" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K18" s="1"/>
       <x:c r="L18" s="1"/>
@@ -6470,18 +6402,18 @@
     </x:row>
     <x:row r="19" spans="1:52" ht="19.5" customHeight="1">
       <x:c r="A19" s="9"/>
-      <x:c r="B19" s="139"/>
-      <x:c r="C19" s="188"/>
+      <x:c r="B19" s="141"/>
+      <x:c r="C19" s="190"/>
       <x:c r="D19" s="43" t="s">
-        <x:v>137</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E19" s="72"/>
       <x:c r="F19" s="1"/>
       <x:c r="G19" s="2"/>
       <x:c r="H19" s="49"/>
-      <x:c r="I19" s="194"/>
-      <x:c r="J19" s="195" t="s">
-        <x:v>71</x:v>
+      <x:c r="I19" s="196"/>
+      <x:c r="J19" s="197" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K19" s="2"/>
       <x:c r="L19" s="1"/>
@@ -6528,18 +6460,18 @@
     </x:row>
     <x:row r="20" spans="1:52" customHeight="1">
       <x:c r="A20" s="9"/>
-      <x:c r="B20" s="139"/>
-      <x:c r="C20" s="188"/>
+      <x:c r="B20" s="141"/>
+      <x:c r="C20" s="190"/>
       <x:c r="D20" s="43" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E20" s="72"/>
       <x:c r="F20" s="1"/>
       <x:c r="G20" s="2"/>
       <x:c r="H20" s="50"/>
-      <x:c r="I20" s="196"/>
-      <x:c r="J20" s="197" t="s">
-        <x:v>71</x:v>
+      <x:c r="I20" s="198"/>
+      <x:c r="J20" s="199" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K20" s="1"/>
       <x:c r="L20" s="1"/>
@@ -6586,18 +6518,18 @@
     </x:row>
     <x:row r="21" spans="1:52" customHeight="1">
       <x:c r="A21" s="9"/>
-      <x:c r="B21" s="139"/>
-      <x:c r="C21" s="188"/>
+      <x:c r="B21" s="141"/>
+      <x:c r="C21" s="190"/>
       <x:c r="D21" s="43" t="s">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E21" s="72"/>
       <x:c r="F21" s="1"/>
       <x:c r="G21" s="2"/>
       <x:c r="H21" s="51"/>
-      <x:c r="I21" s="198"/>
-      <x:c r="J21" s="199" t="s">
-        <x:v>71</x:v>
+      <x:c r="I21" s="200"/>
+      <x:c r="J21" s="201" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K21" s="1"/>
       <x:c r="L21" s="1"/>
@@ -6644,18 +6576,18 @@
     </x:row>
     <x:row r="22" spans="1:52" ht="18" customHeight="1">
       <x:c r="A22" s="9"/>
-      <x:c r="B22" s="139"/>
-      <x:c r="C22" s="189"/>
+      <x:c r="B22" s="141"/>
+      <x:c r="C22" s="191"/>
       <x:c r="D22" s="43" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E22" s="72"/>
       <x:c r="F22" s="1"/>
       <x:c r="G22" s="1"/>
       <x:c r="H22" s="1"/>
-      <x:c r="I22" s="200"/>
-      <x:c r="J22" s="201" t="s">
-        <x:v>71</x:v>
+      <x:c r="I22" s="202"/>
+      <x:c r="J22" s="203" t="s">
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K22" s="53"/>
       <x:c r="L22" s="45"/>
@@ -6702,12 +6634,12 @@
     </x:row>
     <x:row r="23" spans="1:52" ht="30" customHeight="1">
       <x:c r="A23" s="9"/>
-      <x:c r="B23" s="139"/>
+      <x:c r="B23" s="141"/>
       <x:c r="C23" s="40" t="s">
-        <x:v>122</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D23" s="43" t="s">
-        <x:v>122</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="E23" s="73"/>
       <x:c r="F23" s="24"/>
@@ -6760,12 +6692,12 @@
     </x:row>
     <x:row r="24" spans="1:52" ht="30" customHeight="1">
       <x:c r="A24" s="9"/>
-      <x:c r="B24" s="137"/>
-      <x:c r="C24" s="187" t="s">
-        <x:v>69</x:v>
+      <x:c r="B24" s="139"/>
+      <x:c r="C24" s="189" t="s">
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D24" s="43" t="s">
-        <x:v>150</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E24" s="73"/>
       <x:c r="F24" s="24"/>
@@ -6773,8 +6705,8 @@
       <x:c r="H24" s="24"/>
       <x:c r="I24" s="37"/>
       <x:c r="J24" s="56"/>
-      <x:c r="K24" s="202"/>
-      <x:c r="L24" s="203"/>
+      <x:c r="K24" s="204"/>
+      <x:c r="L24" s="205"/>
       <x:c r="M24" s="38"/>
       <x:c r="N24" s="24"/>
       <x:c r="O24" s="24"/>
@@ -6818,10 +6750,10 @@
     </x:row>
     <x:row r="25" spans="1:52" ht="30" customHeight="1">
       <x:c r="A25" s="9"/>
-      <x:c r="B25" s="139"/>
-      <x:c r="C25" s="188"/>
+      <x:c r="B25" s="141"/>
+      <x:c r="C25" s="190"/>
       <x:c r="D25" s="43" t="s">
-        <x:v>137</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="E25" s="73"/>
       <x:c r="F25" s="24"/>
@@ -6829,8 +6761,8 @@
       <x:c r="H25" s="24"/>
       <x:c r="I25" s="37"/>
       <x:c r="J25" s="56"/>
-      <x:c r="K25" s="204"/>
-      <x:c r="L25" s="205"/>
+      <x:c r="K25" s="206"/>
+      <x:c r="L25" s="207"/>
       <x:c r="M25" s="52"/>
       <x:c r="N25" s="24"/>
       <x:c r="O25" s="24"/>
@@ -6874,10 +6806,10 @@
     </x:row>
     <x:row r="26" spans="1:52" ht="30" customHeight="1">
       <x:c r="A26" s="9"/>
-      <x:c r="B26" s="137"/>
-      <x:c r="C26" s="188"/>
+      <x:c r="B26" s="139"/>
+      <x:c r="C26" s="190"/>
       <x:c r="D26" s="43" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E26" s="73"/>
       <x:c r="F26" s="24"/>
@@ -6885,8 +6817,8 @@
       <x:c r="H26" s="24"/>
       <x:c r="I26" s="37"/>
       <x:c r="J26" s="56"/>
-      <x:c r="K26" s="206"/>
-      <x:c r="L26" s="207"/>
+      <x:c r="K26" s="208"/>
+      <x:c r="L26" s="209"/>
       <x:c r="M26" s="52"/>
       <x:c r="N26" s="24"/>
       <x:c r="O26" s="24"/>
@@ -6930,10 +6862,10 @@
     </x:row>
     <x:row r="27" spans="1:52" ht="30" customHeight="1">
       <x:c r="A27" s="9"/>
-      <x:c r="B27" s="139"/>
-      <x:c r="C27" s="188"/>
+      <x:c r="B27" s="141"/>
+      <x:c r="C27" s="190"/>
       <x:c r="D27" s="43" t="s">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E27" s="73"/>
       <x:c r="F27" s="24"/>
@@ -6941,8 +6873,8 @@
       <x:c r="H27" s="24"/>
       <x:c r="I27" s="37"/>
       <x:c r="J27" s="56"/>
-      <x:c r="K27" s="208"/>
-      <x:c r="L27" s="209"/>
+      <x:c r="K27" s="210"/>
+      <x:c r="L27" s="211"/>
       <x:c r="M27" s="52"/>
       <x:c r="N27" s="24"/>
       <x:c r="O27" s="24"/>
@@ -6986,10 +6918,10 @@
     </x:row>
     <x:row r="28" spans="1:52" ht="30" customHeight="1">
       <x:c r="A28" s="9"/>
-      <x:c r="B28" s="137"/>
-      <x:c r="C28" s="189"/>
+      <x:c r="B28" s="139"/>
+      <x:c r="C28" s="191"/>
       <x:c r="D28" s="43" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E28" s="73"/>
       <x:c r="F28" s="24"/>
@@ -6997,8 +6929,8 @@
       <x:c r="H28" s="24"/>
       <x:c r="I28" s="37"/>
       <x:c r="J28" s="56"/>
-      <x:c r="K28" s="210"/>
-      <x:c r="L28" s="211"/>
+      <x:c r="K28" s="212"/>
+      <x:c r="L28" s="213"/>
       <x:c r="M28" s="52"/>
       <x:c r="N28" s="24"/>
       <x:c r="O28" s="24"/>
@@ -7042,12 +6974,12 @@
     </x:row>
     <x:row r="29" spans="1:52" ht="30" customHeight="1">
       <x:c r="A29" s="9"/>
-      <x:c r="B29" s="139"/>
+      <x:c r="B29" s="141"/>
       <x:c r="C29" s="39" t="s">
-        <x:v>68</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D29" s="41" t="s">
-        <x:v>68</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E29" s="73"/>
       <x:c r="F29" s="24"/>
@@ -7057,8 +6989,8 @@
       <x:c r="J29" s="56"/>
       <x:c r="K29" s="55"/>
       <x:c r="L29" s="55"/>
-      <x:c r="M29" s="212"/>
-      <x:c r="N29" s="213"/>
+      <x:c r="M29" s="214"/>
+      <x:c r="N29" s="215"/>
       <x:c r="O29" s="24"/>
       <x:c r="P29" s="24"/>
       <x:c r="Q29" s="24"/>
@@ -7100,12 +7032,12 @@
     </x:row>
     <x:row r="30" spans="1:52" ht="30" customHeight="1">
       <x:c r="A30" s="9"/>
-      <x:c r="B30" s="139"/>
-      <x:c r="C30" s="187" t="s">
-        <x:v>81</x:v>
+      <x:c r="B30" s="141"/>
+      <x:c r="C30" s="189" t="s">
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D30" s="43" t="s">
-        <x:v>150</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E30" s="73"/>
       <x:c r="F30" s="24"/>
@@ -7158,12 +7090,12 @@
     </x:row>
     <x:row r="31" spans="1:52" ht="30" customHeight="1">
       <x:c r="A31" s="9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="B31" s="139"/>
-      <x:c r="C31" s="188"/>
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B31" s="141"/>
+      <x:c r="C31" s="190"/>
       <x:c r="D31" s="43" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="E31" s="73"/>
       <x:c r="F31" s="24"/>
@@ -7216,10 +7148,10 @@
     </x:row>
     <x:row r="32" spans="1:52" ht="30" customHeight="1">
       <x:c r="A32" s="9"/>
-      <x:c r="B32" s="139"/>
-      <x:c r="C32" s="188"/>
+      <x:c r="B32" s="141"/>
+      <x:c r="C32" s="190"/>
       <x:c r="D32" s="43" t="s">
-        <x:v>51</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E32" s="73"/>
       <x:c r="F32" s="24"/>
@@ -7272,10 +7204,10 @@
     </x:row>
     <x:row r="33" spans="1:52" ht="30" customHeight="1">
       <x:c r="A33" s="9"/>
-      <x:c r="B33" s="139"/>
-      <x:c r="C33" s="188"/>
+      <x:c r="B33" s="141"/>
+      <x:c r="C33" s="190"/>
       <x:c r="D33" s="43" t="s">
-        <x:v>133</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="E33" s="73"/>
       <x:c r="F33" s="24"/>
@@ -7328,10 +7260,10 @@
     </x:row>
     <x:row r="34" spans="1:52" ht="30" customHeight="1">
       <x:c r="A34" s="9"/>
-      <x:c r="B34" s="139"/>
-      <x:c r="C34" s="189"/>
+      <x:c r="B34" s="141"/>
+      <x:c r="C34" s="191"/>
       <x:c r="D34" s="43" t="s">
-        <x:v>49</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="E34" s="74"/>
       <x:c r="F34" s="3"/>
@@ -7384,14 +7316,14 @@
     </x:row>
     <x:row r="35" spans="1:52" ht="16.75" customHeight="1">
       <x:c r="A35" s="9"/>
-      <x:c r="B35" s="137" t="s">
-        <x:v>33</x:v>
+      <x:c r="B35" s="139" t="s">
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C35" s="6" t="s">
-        <x:v>32</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D35" s="6" t="s">
-        <x:v>79</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="E35" s="114"/>
       <x:c r="F35" s="66"/>
@@ -7404,52 +7336,52 @@
       <x:c r="M35" s="90"/>
       <x:c r="N35" s="91"/>
       <x:c r="O35" s="66"/>
-      <x:c r="P35" s="214"/>
-      <x:c r="Q35" s="215"/>
-      <x:c r="R35" s="215"/>
-      <x:c r="S35" s="215"/>
-      <x:c r="T35" s="215"/>
-      <x:c r="U35" s="215"/>
-      <x:c r="V35" s="215"/>
-      <x:c r="W35" s="215"/>
-      <x:c r="X35" s="215"/>
-      <x:c r="Y35" s="215"/>
-      <x:c r="Z35" s="215"/>
-      <x:c r="AA35" s="215"/>
-      <x:c r="AB35" s="215"/>
-      <x:c r="AC35" s="215"/>
-      <x:c r="AD35" s="215"/>
-      <x:c r="AE35" s="215"/>
-      <x:c r="AF35" s="215"/>
-      <x:c r="AG35" s="215"/>
-      <x:c r="AH35" s="215"/>
-      <x:c r="AI35" s="216"/>
-      <x:c r="AJ35" s="216"/>
-      <x:c r="AK35" s="216"/>
-      <x:c r="AL35" s="216"/>
-      <x:c r="AM35" s="216"/>
-      <x:c r="AN35" s="216"/>
-      <x:c r="AO35" s="216"/>
-      <x:c r="AP35" s="216"/>
-      <x:c r="AQ35" s="216"/>
-      <x:c r="AR35" s="216"/>
-      <x:c r="AS35" s="216"/>
-      <x:c r="AT35" s="216"/>
-      <x:c r="AU35" s="216"/>
-      <x:c r="AV35" s="216"/>
-      <x:c r="AW35" s="216"/>
-      <x:c r="AX35" s="216"/>
-      <x:c r="AY35" s="216"/>
-      <x:c r="AZ35" s="217"/>
+      <x:c r="P35" s="216"/>
+      <x:c r="Q35" s="217"/>
+      <x:c r="R35" s="217"/>
+      <x:c r="S35" s="217"/>
+      <x:c r="T35" s="217"/>
+      <x:c r="U35" s="217"/>
+      <x:c r="V35" s="217"/>
+      <x:c r="W35" s="217"/>
+      <x:c r="X35" s="217"/>
+      <x:c r="Y35" s="217"/>
+      <x:c r="Z35" s="217"/>
+      <x:c r="AA35" s="217"/>
+      <x:c r="AB35" s="217"/>
+      <x:c r="AC35" s="217"/>
+      <x:c r="AD35" s="217"/>
+      <x:c r="AE35" s="217"/>
+      <x:c r="AF35" s="217"/>
+      <x:c r="AG35" s="217"/>
+      <x:c r="AH35" s="217"/>
+      <x:c r="AI35" s="218"/>
+      <x:c r="AJ35" s="218"/>
+      <x:c r="AK35" s="218"/>
+      <x:c r="AL35" s="218"/>
+      <x:c r="AM35" s="218"/>
+      <x:c r="AN35" s="218"/>
+      <x:c r="AO35" s="218"/>
+      <x:c r="AP35" s="218"/>
+      <x:c r="AQ35" s="218"/>
+      <x:c r="AR35" s="218"/>
+      <x:c r="AS35" s="218"/>
+      <x:c r="AT35" s="218"/>
+      <x:c r="AU35" s="218"/>
+      <x:c r="AV35" s="218"/>
+      <x:c r="AW35" s="218"/>
+      <x:c r="AX35" s="218"/>
+      <x:c r="AY35" s="218"/>
+      <x:c r="AZ35" s="219"/>
     </x:row>
     <x:row r="36" spans="1:52" customHeight="1">
       <x:c r="A36" s="9"/>
-      <x:c r="B36" s="139"/>
+      <x:c r="B36" s="141"/>
       <x:c r="C36" s="47" t="s">
-        <x:v>74</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D36" s="94" t="s">
-        <x:v>67</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="E36" s="71"/>
       <x:c r="F36" s="35"/>
@@ -7462,8 +7394,8 @@
       <x:c r="M36" s="98"/>
       <x:c r="N36" s="99"/>
       <x:c r="O36" s="52"/>
-      <x:c r="P36" s="221"/>
-      <x:c r="Q36" s="222"/>
+      <x:c r="P36" s="223"/>
+      <x:c r="Q36" s="224"/>
       <x:c r="R36" s="52"/>
       <x:c r="S36" s="52"/>
       <x:c r="T36" s="52"/>
@@ -7471,16 +7403,16 @@
       <x:c r="V36" s="52"/>
       <x:c r="W36" s="52"/>
       <x:c r="X36" s="52"/>
-      <x:c r="Y36" s="218"/>
-      <x:c r="Z36" s="219"/>
-      <x:c r="AA36" s="219"/>
-      <x:c r="AB36" s="219"/>
-      <x:c r="AC36" s="219"/>
-      <x:c r="AD36" s="219"/>
-      <x:c r="AE36" s="219"/>
-      <x:c r="AF36" s="219"/>
-      <x:c r="AG36" s="219"/>
-      <x:c r="AH36" s="220"/>
+      <x:c r="Y36" s="220"/>
+      <x:c r="Z36" s="221"/>
+      <x:c r="AA36" s="221"/>
+      <x:c r="AB36" s="221"/>
+      <x:c r="AC36" s="221"/>
+      <x:c r="AD36" s="221"/>
+      <x:c r="AE36" s="221"/>
+      <x:c r="AF36" s="221"/>
+      <x:c r="AG36" s="221"/>
+      <x:c r="AH36" s="222"/>
       <x:c r="AI36" s="27"/>
       <x:c r="AJ36" s="27"/>
       <x:c r="AK36" s="27"/>
@@ -7502,12 +7434,12 @@
     </x:row>
     <x:row r="37" spans="1:52" customHeight="1">
       <x:c r="A37" s="9"/>
-      <x:c r="B37" s="139"/>
-      <x:c r="C37" s="187" t="s">
-        <x:v>8</x:v>
+      <x:c r="B37" s="141"/>
+      <x:c r="C37" s="189" t="s">
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D37" s="47" t="s">
-        <x:v>78</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="E37" s="72"/>
       <x:c r="F37" s="1"/>
@@ -7520,10 +7452,10 @@
       <x:c r="M37" s="97"/>
       <x:c r="N37" s="100"/>
       <x:c r="O37" s="101"/>
-      <x:c r="P37" s="223"/>
-      <x:c r="Q37" s="224"/>
-      <x:c r="R37" s="221"/>
-      <x:c r="S37" s="222"/>
+      <x:c r="P37" s="225"/>
+      <x:c r="Q37" s="226"/>
+      <x:c r="R37" s="223"/>
+      <x:c r="S37" s="224"/>
       <x:c r="T37" s="52"/>
       <x:c r="U37" s="97"/>
       <x:c r="V37" s="97"/>
@@ -7560,10 +7492,10 @@
     </x:row>
     <x:row r="38" spans="1:52" ht="30" customHeight="1">
       <x:c r="A38" s="9"/>
-      <x:c r="B38" s="139"/>
-      <x:c r="C38" s="188"/>
+      <x:c r="B38" s="141"/>
+      <x:c r="C38" s="190"/>
       <x:c r="D38" s="95" t="s">
-        <x:v>120</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="E38" s="72"/>
       <x:c r="F38" s="1"/>
@@ -7578,8 +7510,8 @@
       <x:c r="O38" s="104"/>
       <x:c r="P38" s="102"/>
       <x:c r="Q38" s="102"/>
-      <x:c r="R38" s="223"/>
-      <x:c r="S38" s="224"/>
+      <x:c r="R38" s="225"/>
+      <x:c r="S38" s="226"/>
       <x:c r="T38" s="52"/>
       <x:c r="U38" s="52"/>
       <x:c r="V38" s="52"/>
@@ -7616,10 +7548,10 @@
     </x:row>
     <x:row r="39" spans="1:52" ht="30" customHeight="1">
       <x:c r="A39" s="9"/>
-      <x:c r="B39" s="139"/>
-      <x:c r="C39" s="188"/>
+      <x:c r="B39" s="141"/>
+      <x:c r="C39" s="190"/>
       <x:c r="D39" s="95" t="s">
-        <x:v>62</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="E39" s="72"/>
       <x:c r="F39" s="1"/>
@@ -7636,10 +7568,10 @@
       <x:c r="Q39" s="102"/>
       <x:c r="R39" s="102"/>
       <x:c r="S39" s="52"/>
-      <x:c r="T39" s="223"/>
-      <x:c r="U39" s="225"/>
-      <x:c r="V39" s="225"/>
-      <x:c r="W39" s="224"/>
+      <x:c r="T39" s="225"/>
+      <x:c r="U39" s="227"/>
+      <x:c r="V39" s="227"/>
+      <x:c r="W39" s="226"/>
       <x:c r="X39" s="52"/>
       <x:c r="Y39" s="52"/>
       <x:c r="Z39" s="52"/>
@@ -7672,12 +7604,12 @@
     </x:row>
     <x:row r="40" spans="1:52" customHeight="1">
       <x:c r="A40" s="9"/>
-      <x:c r="B40" s="139"/>
-      <x:c r="C40" s="187" t="s">
+      <x:c r="B40" s="141"/>
+      <x:c r="C40" s="189" t="s">
         <x:v>134</x:v>
       </x:c>
       <x:c r="D40" s="94" t="s">
-        <x:v>40</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E40" s="72"/>
       <x:c r="F40" s="1"/>
@@ -7698,9 +7630,9 @@
       <x:c r="U40" s="52"/>
       <x:c r="V40" s="52"/>
       <x:c r="W40" s="52"/>
-      <x:c r="X40" s="223"/>
-      <x:c r="Y40" s="225"/>
-      <x:c r="Z40" s="224"/>
+      <x:c r="X40" s="225"/>
+      <x:c r="Y40" s="227"/>
+      <x:c r="Z40" s="226"/>
       <x:c r="AA40" s="52"/>
       <x:c r="AB40" s="52"/>
       <x:c r="AC40" s="1"/>
@@ -7730,10 +7662,10 @@
     </x:row>
     <x:row r="41" spans="1:52" ht="30" customHeight="1">
       <x:c r="A41" s="9"/>
-      <x:c r="B41" s="139"/>
-      <x:c r="C41" s="188"/>
+      <x:c r="B41" s="141"/>
+      <x:c r="C41" s="190"/>
       <x:c r="D41" s="96" t="s">
-        <x:v>34</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E41" s="72"/>
       <x:c r="F41" s="1"/>
@@ -7757,9 +7689,9 @@
       <x:c r="X41" s="52"/>
       <x:c r="Y41" s="52"/>
       <x:c r="Z41" s="52"/>
-      <x:c r="AA41" s="223"/>
-      <x:c r="AB41" s="225"/>
-      <x:c r="AC41" s="224"/>
+      <x:c r="AA41" s="225"/>
+      <x:c r="AB41" s="227"/>
+      <x:c r="AC41" s="226"/>
       <x:c r="AD41" s="1"/>
       <x:c r="AE41" s="1"/>
       <x:c r="AF41" s="1"/>
@@ -7786,10 +7718,10 @@
     </x:row>
     <x:row r="42" spans="1:52" ht="30" customHeight="1">
       <x:c r="A42" s="9"/>
-      <x:c r="B42" s="139"/>
-      <x:c r="C42" s="189"/>
+      <x:c r="B42" s="141"/>
+      <x:c r="C42" s="191"/>
       <x:c r="D42" s="95" t="s">
-        <x:v>31</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="E42" s="72"/>
       <x:c r="F42" s="1"/>
@@ -7816,9 +7748,9 @@
       <x:c r="AA42" s="102"/>
       <x:c r="AB42" s="52"/>
       <x:c r="AC42" s="1"/>
-      <x:c r="AD42" s="223"/>
-      <x:c r="AE42" s="225"/>
-      <x:c r="AF42" s="224"/>
+      <x:c r="AD42" s="225"/>
+      <x:c r="AE42" s="227"/>
+      <x:c r="AF42" s="226"/>
       <x:c r="AG42" s="1"/>
       <x:c r="AH42" s="1"/>
       <x:c r="AI42" s="27"/>
@@ -7842,12 +7774,12 @@
     </x:row>
     <x:row r="43" spans="1:52" ht="30" customHeight="1">
       <x:c r="A43" s="9"/>
-      <x:c r="B43" s="139"/>
-      <x:c r="C43" s="187" t="s">
-        <x:v>72</x:v>
+      <x:c r="B43" s="141"/>
+      <x:c r="C43" s="189" t="s">
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D43" s="93" t="s">
-        <x:v>17</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E43" s="72"/>
       <x:c r="F43" s="1"/>
@@ -7860,8 +7792,8 @@
       <x:c r="M43" s="97"/>
       <x:c r="N43" s="97"/>
       <x:c r="O43" s="52"/>
-      <x:c r="P43" s="218"/>
-      <x:c r="Q43" s="220"/>
+      <x:c r="P43" s="220"/>
+      <x:c r="Q43" s="222"/>
       <x:c r="R43" s="52"/>
       <x:c r="S43" s="97"/>
       <x:c r="T43" s="97"/>
@@ -7900,10 +7832,10 @@
     </x:row>
     <x:row r="44" spans="1:52" ht="30" customHeight="1">
       <x:c r="A44" s="9"/>
-      <x:c r="B44" s="139"/>
-      <x:c r="C44" s="188"/>
+      <x:c r="B44" s="141"/>
+      <x:c r="C44" s="190"/>
       <x:c r="D44" s="94" t="s">
-        <x:v>152</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E44" s="72"/>
       <x:c r="F44" s="1"/>
@@ -7956,10 +7888,10 @@
     </x:row>
     <x:row r="45" spans="1:52" ht="30" customHeight="1">
       <x:c r="A45" s="9"/>
-      <x:c r="B45" s="139"/>
-      <x:c r="C45" s="188"/>
+      <x:c r="B45" s="141"/>
+      <x:c r="C45" s="190"/>
       <x:c r="D45" s="96" t="s">
-        <x:v>140</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E45" s="72"/>
       <x:c r="F45" s="1"/>
@@ -7975,8 +7907,8 @@
       <x:c r="P45" s="108"/>
       <x:c r="Q45" s="108"/>
       <x:c r="R45" s="108"/>
-      <x:c r="S45" s="226"/>
-      <x:c r="T45" s="220"/>
+      <x:c r="S45" s="228"/>
+      <x:c r="T45" s="222"/>
       <x:c r="U45" s="52"/>
       <x:c r="V45" s="52"/>
       <x:c r="W45" s="52"/>
@@ -8012,10 +7944,10 @@
     </x:row>
     <x:row r="46" spans="1:52" ht="30" customHeight="1">
       <x:c r="A46" s="9"/>
-      <x:c r="B46" s="137"/>
-      <x:c r="C46" s="189"/>
+      <x:c r="B46" s="139"/>
+      <x:c r="C46" s="191"/>
       <x:c r="D46" s="96" t="s">
-        <x:v>11</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E46" s="72"/>
       <x:c r="F46" s="1"/>
@@ -8033,8 +7965,8 @@
       <x:c r="R46" s="108"/>
       <x:c r="S46" s="108"/>
       <x:c r="T46" s="102"/>
-      <x:c r="U46" s="218"/>
-      <x:c r="V46" s="220"/>
+      <x:c r="U46" s="220"/>
+      <x:c r="V46" s="222"/>
       <x:c r="W46" s="52"/>
       <x:c r="X46" s="97"/>
       <x:c r="Y46" s="97"/>
@@ -8068,12 +8000,12 @@
     </x:row>
     <x:row r="47" spans="1:52" ht="30" customHeight="1">
       <x:c r="A47" s="9"/>
-      <x:c r="B47" s="139"/>
-      <x:c r="C47" s="187" t="s">
-        <x:v>135</x:v>
+      <x:c r="B47" s="141"/>
+      <x:c r="C47" s="189" t="s">
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D47" s="96" t="s">
-        <x:v>7</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E47" s="72"/>
       <x:c r="F47" s="1"/>
@@ -8086,11 +8018,11 @@
       <x:c r="M47" s="97"/>
       <x:c r="N47" s="109"/>
       <x:c r="O47" s="51"/>
-      <x:c r="P47" s="227"/>
-      <x:c r="Q47" s="228"/>
-      <x:c r="R47" s="228"/>
-      <x:c r="S47" s="228"/>
-      <x:c r="T47" s="229"/>
+      <x:c r="P47" s="229"/>
+      <x:c r="Q47" s="230"/>
+      <x:c r="R47" s="230"/>
+      <x:c r="S47" s="230"/>
+      <x:c r="T47" s="231"/>
       <x:c r="U47" s="52"/>
       <x:c r="V47" s="52"/>
       <x:c r="W47" s="52"/>
@@ -8126,10 +8058,10 @@
     </x:row>
     <x:row r="48" spans="1:52" ht="30" customHeight="1">
       <x:c r="A48" s="9"/>
-      <x:c r="B48" s="137"/>
-      <x:c r="C48" s="188"/>
+      <x:c r="B48" s="139"/>
+      <x:c r="C48" s="190"/>
       <x:c r="D48" s="96" t="s">
-        <x:v>149</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E48" s="72"/>
       <x:c r="F48" s="1"/>
@@ -8147,11 +8079,11 @@
       <x:c r="R48" s="108"/>
       <x:c r="S48" s="108"/>
       <x:c r="T48" s="102"/>
-      <x:c r="U48" s="230"/>
-      <x:c r="V48" s="231"/>
-      <x:c r="W48" s="231"/>
-      <x:c r="X48" s="231"/>
-      <x:c r="Y48" s="229"/>
+      <x:c r="U48" s="232"/>
+      <x:c r="V48" s="233"/>
+      <x:c r="W48" s="233"/>
+      <x:c r="X48" s="233"/>
+      <x:c r="Y48" s="231"/>
       <x:c r="Z48" s="52"/>
       <x:c r="AA48" s="52"/>
       <x:c r="AB48" s="52"/>
@@ -8182,10 +8114,10 @@
     </x:row>
     <x:row r="49" spans="1:52" ht="30" customHeight="1">
       <x:c r="A49" s="9"/>
-      <x:c r="B49" s="139"/>
-      <x:c r="C49" s="188"/>
+      <x:c r="B49" s="141"/>
+      <x:c r="C49" s="190"/>
       <x:c r="D49" s="96" t="s">
-        <x:v>14</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="E49" s="72"/>
       <x:c r="F49" s="1"/>
@@ -8208,9 +8140,9 @@
       <x:c r="W49" s="52"/>
       <x:c r="X49" s="52"/>
       <x:c r="Y49" s="52"/>
-      <x:c r="Z49" s="230"/>
-      <x:c r="AA49" s="231"/>
-      <x:c r="AB49" s="229"/>
+      <x:c r="Z49" s="232"/>
+      <x:c r="AA49" s="233"/>
+      <x:c r="AB49" s="231"/>
       <x:c r="AC49" s="1"/>
       <x:c r="AD49" s="1"/>
       <x:c r="AE49" s="1"/>
@@ -8238,10 +8170,10 @@
     </x:row>
     <x:row r="50" spans="1:52" ht="30" customHeight="1">
       <x:c r="A50" s="9"/>
-      <x:c r="B50" s="137"/>
-      <x:c r="C50" s="188"/>
+      <x:c r="B50" s="139"/>
+      <x:c r="C50" s="190"/>
       <x:c r="D50" s="96" t="s">
-        <x:v>75</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="E50" s="72"/>
       <x:c r="F50" s="1"/>
@@ -8267,11 +8199,11 @@
       <x:c r="Z50" s="52"/>
       <x:c r="AA50" s="52"/>
       <x:c r="AB50" s="52"/>
-      <x:c r="AC50" s="230"/>
-      <x:c r="AD50" s="231"/>
-      <x:c r="AE50" s="231"/>
-      <x:c r="AF50" s="231"/>
-      <x:c r="AG50" s="229"/>
+      <x:c r="AC50" s="232"/>
+      <x:c r="AD50" s="233"/>
+      <x:c r="AE50" s="233"/>
+      <x:c r="AF50" s="233"/>
+      <x:c r="AG50" s="231"/>
       <x:c r="AH50" s="1"/>
       <x:c r="AI50" s="27"/>
       <x:c r="AJ50" s="27"/>
@@ -8294,10 +8226,10 @@
     </x:row>
     <x:row r="51" spans="1:52" ht="30" customHeight="1">
       <x:c r="A51" s="9"/>
-      <x:c r="B51" s="139"/>
-      <x:c r="C51" s="189"/>
+      <x:c r="B51" s="141"/>
+      <x:c r="C51" s="191"/>
       <x:c r="D51" s="96" t="s">
-        <x:v>13</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E51" s="72"/>
       <x:c r="F51" s="1"/>
@@ -8328,9 +8260,9 @@
       <x:c r="AE51" s="1"/>
       <x:c r="AF51" s="1"/>
       <x:c r="AG51" s="1"/>
-      <x:c r="AH51" s="230"/>
-      <x:c r="AI51" s="232"/>
-      <x:c r="AJ51" s="232"/>
+      <x:c r="AH51" s="232"/>
+      <x:c r="AI51" s="234"/>
+      <x:c r="AJ51" s="234"/>
       <x:c r="AK51" s="27"/>
       <x:c r="AL51" s="27"/>
       <x:c r="AM51" s="27"/>
@@ -8350,12 +8282,12 @@
     </x:row>
     <x:row r="52" spans="1:52" ht="30" customHeight="1">
       <x:c r="A52" s="9"/>
-      <x:c r="B52" s="139"/>
-      <x:c r="C52" s="187" t="s">
-        <x:v>35</x:v>
+      <x:c r="B52" s="141"/>
+      <x:c r="C52" s="189" t="s">
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D52" s="96" t="s">
-        <x:v>63</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E52" s="72"/>
       <x:c r="F52" s="1"/>
@@ -8368,8 +8300,8 @@
       <x:c r="M52" s="97"/>
       <x:c r="N52" s="97"/>
       <x:c r="O52" s="52"/>
-      <x:c r="P52" s="233"/>
-      <x:c r="Q52" s="234"/>
+      <x:c r="P52" s="235"/>
+      <x:c r="Q52" s="236"/>
       <x:c r="R52" s="109"/>
       <x:c r="S52" s="48"/>
       <x:c r="T52" s="101"/>
@@ -8408,10 +8340,10 @@
     </x:row>
     <x:row r="53" spans="1:52" ht="30" customHeight="1">
       <x:c r="A53" s="9"/>
-      <x:c r="B53" s="137"/>
-      <x:c r="C53" s="188"/>
+      <x:c r="B53" s="139"/>
+      <x:c r="C53" s="190"/>
       <x:c r="D53" s="96" t="s">
-        <x:v>36</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E53" s="72"/>
       <x:c r="F53" s="1"/>
@@ -8426,8 +8358,8 @@
       <x:c r="O53" s="52"/>
       <x:c r="P53" s="52"/>
       <x:c r="Q53" s="109"/>
-      <x:c r="R53" s="233"/>
-      <x:c r="S53" s="235"/>
+      <x:c r="R53" s="235"/>
+      <x:c r="S53" s="237"/>
       <x:c r="T53" s="101"/>
       <x:c r="U53" s="101"/>
       <x:c r="V53" s="101"/>
@@ -8464,10 +8396,10 @@
     </x:row>
     <x:row r="54" spans="1:52" ht="30" customHeight="1">
       <x:c r="A54" s="9"/>
-      <x:c r="B54" s="139"/>
-      <x:c r="C54" s="188"/>
+      <x:c r="B54" s="141"/>
+      <x:c r="C54" s="190"/>
       <x:c r="D54" s="96" t="s">
-        <x:v>61</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="E54" s="72"/>
       <x:c r="F54" s="1"/>
@@ -8484,9 +8416,9 @@
       <x:c r="Q54" s="109"/>
       <x:c r="R54" s="109"/>
       <x:c r="S54" s="48"/>
-      <x:c r="T54" s="236"/>
-      <x:c r="U54" s="237"/>
-      <x:c r="V54" s="238"/>
+      <x:c r="T54" s="238"/>
+      <x:c r="U54" s="239"/>
+      <x:c r="V54" s="240"/>
       <x:c r="W54" s="102"/>
       <x:c r="X54" s="102"/>
       <x:c r="Y54" s="52"/>
@@ -8520,10 +8452,10 @@
     </x:row>
     <x:row r="55" spans="1:52" ht="30" customHeight="1">
       <x:c r="A55" s="9"/>
-      <x:c r="B55" s="137"/>
-      <x:c r="C55" s="188"/>
+      <x:c r="B55" s="139"/>
+      <x:c r="C55" s="190"/>
       <x:c r="D55" s="96" t="s">
-        <x:v>70</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="E55" s="72"/>
       <x:c r="F55" s="1"/>
@@ -8543,8 +8475,8 @@
       <x:c r="T55" s="101"/>
       <x:c r="U55" s="101"/>
       <x:c r="V55" s="101"/>
-      <x:c r="W55" s="233"/>
-      <x:c r="X55" s="234"/>
+      <x:c r="W55" s="235"/>
+      <x:c r="X55" s="236"/>
       <x:c r="Y55" s="52"/>
       <x:c r="Z55" s="97"/>
       <x:c r="AA55" s="97"/>
@@ -8576,10 +8508,10 @@
     </x:row>
     <x:row r="56" spans="1:52" ht="30" customHeight="1">
       <x:c r="A56" s="9"/>
-      <x:c r="B56" s="139"/>
-      <x:c r="C56" s="188"/>
+      <x:c r="B56" s="141"/>
+      <x:c r="C56" s="190"/>
       <x:c r="D56" s="96" t="s">
-        <x:v>118</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="E56" s="72"/>
       <x:c r="F56" s="1"/>
@@ -8601,21 +8533,21 @@
       <x:c r="V56" s="102"/>
       <x:c r="W56" s="102"/>
       <x:c r="X56" s="102"/>
-      <x:c r="Y56" s="233"/>
-      <x:c r="Z56" s="239"/>
-      <x:c r="AA56" s="239"/>
-      <x:c r="AB56" s="239"/>
-      <x:c r="AC56" s="239"/>
-      <x:c r="AD56" s="239"/>
-      <x:c r="AE56" s="239"/>
-      <x:c r="AF56" s="239"/>
-      <x:c r="AG56" s="239"/>
-      <x:c r="AH56" s="239"/>
-      <x:c r="AI56" s="240"/>
-      <x:c r="AJ56" s="240"/>
-      <x:c r="AK56" s="240"/>
-      <x:c r="AL56" s="240"/>
-      <x:c r="AM56" s="240"/>
+      <x:c r="Y56" s="235"/>
+      <x:c r="Z56" s="241"/>
+      <x:c r="AA56" s="241"/>
+      <x:c r="AB56" s="241"/>
+      <x:c r="AC56" s="241"/>
+      <x:c r="AD56" s="241"/>
+      <x:c r="AE56" s="241"/>
+      <x:c r="AF56" s="241"/>
+      <x:c r="AG56" s="241"/>
+      <x:c r="AH56" s="241"/>
+      <x:c r="AI56" s="242"/>
+      <x:c r="AJ56" s="242"/>
+      <x:c r="AK56" s="242"/>
+      <x:c r="AL56" s="242"/>
+      <x:c r="AM56" s="242"/>
       <x:c r="AN56" s="27"/>
       <x:c r="AO56" s="27"/>
       <x:c r="AP56" s="27"/>
@@ -8632,10 +8564,10 @@
     </x:row>
     <x:row r="57" spans="1:52" ht="30" customHeight="1">
       <x:c r="A57" s="9"/>
-      <x:c r="B57" s="139"/>
-      <x:c r="C57" s="189"/>
+      <x:c r="B57" s="141"/>
+      <x:c r="C57" s="191"/>
       <x:c r="D57" s="96" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E57" s="72"/>
       <x:c r="F57" s="1"/>
@@ -8655,8 +8587,8 @@
       <x:c r="T57" s="108"/>
       <x:c r="U57" s="108"/>
       <x:c r="V57" s="102"/>
-      <x:c r="W57" s="218"/>
-      <x:c r="X57" s="220"/>
+      <x:c r="W57" s="220"/>
+      <x:c r="X57" s="222"/>
       <x:c r="Y57" s="52"/>
       <x:c r="Z57" s="97"/>
       <x:c r="AA57" s="97"/>
@@ -8688,12 +8620,12 @@
     </x:row>
     <x:row r="58" spans="1:52" ht="30" customHeight="1">
       <x:c r="A58" s="9"/>
-      <x:c r="B58" s="139"/>
-      <x:c r="C58" s="187" t="s">
-        <x:v>117</x:v>
+      <x:c r="B58" s="141"/>
+      <x:c r="C58" s="189" t="s">
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D58" s="96" t="s">
-        <x:v>1</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E58" s="72"/>
       <x:c r="F58" s="1"/>
@@ -8706,10 +8638,10 @@
       <x:c r="M58" s="52"/>
       <x:c r="N58" s="52"/>
       <x:c r="O58" s="52"/>
-      <x:c r="P58" s="241"/>
-      <x:c r="Q58" s="242"/>
-      <x:c r="R58" s="243"/>
-      <x:c r="S58" s="244"/>
+      <x:c r="P58" s="243"/>
+      <x:c r="Q58" s="244"/>
+      <x:c r="R58" s="245"/>
+      <x:c r="S58" s="246"/>
       <x:c r="T58" s="108"/>
       <x:c r="U58" s="108"/>
       <x:c r="V58" s="102"/>
@@ -8746,8 +8678,8 @@
     </x:row>
     <x:row r="59" spans="1:52" ht="30" customHeight="1">
       <x:c r="A59" s="9"/>
-      <x:c r="B59" s="137"/>
-      <x:c r="C59" s="188"/>
+      <x:c r="B59" s="139"/>
+      <x:c r="C59" s="190"/>
       <x:c r="D59" s="96" t="s">
         <x:v>160</x:v>
       </x:c>
@@ -8766,8 +8698,8 @@
       <x:c r="Q59" s="109"/>
       <x:c r="R59" s="51"/>
       <x:c r="S59" s="108"/>
-      <x:c r="T59" s="245"/>
-      <x:c r="U59" s="244"/>
+      <x:c r="T59" s="247"/>
+      <x:c r="U59" s="246"/>
       <x:c r="V59" s="102"/>
       <x:c r="W59" s="102"/>
       <x:c r="X59" s="102"/>
@@ -8802,10 +8734,10 @@
     </x:row>
     <x:row r="60" spans="1:52" ht="30" customHeight="1">
       <x:c r="A60" s="9"/>
-      <x:c r="B60" s="139"/>
-      <x:c r="C60" s="188"/>
+      <x:c r="B60" s="141"/>
+      <x:c r="C60" s="190"/>
       <x:c r="D60" s="96" t="s">
-        <x:v>143</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E60" s="72"/>
       <x:c r="F60" s="1"/>
@@ -8824,8 +8756,8 @@
       <x:c r="S60" s="108"/>
       <x:c r="T60" s="108"/>
       <x:c r="U60" s="108"/>
-      <x:c r="V60" s="241"/>
-      <x:c r="W60" s="246"/>
+      <x:c r="V60" s="243"/>
+      <x:c r="W60" s="248"/>
       <x:c r="X60" s="102"/>
       <x:c r="Y60" s="52"/>
       <x:c r="Z60" s="52"/>
@@ -8858,10 +8790,10 @@
     </x:row>
     <x:row r="61" spans="1:52" ht="30" customHeight="1">
       <x:c r="A61" s="9"/>
-      <x:c r="B61" s="137"/>
-      <x:c r="C61" s="188"/>
+      <x:c r="B61" s="139"/>
+      <x:c r="C61" s="190"/>
       <x:c r="D61" s="96" t="s">
-        <x:v>53</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E61" s="72"/>
       <x:c r="F61" s="1"/>
@@ -8882,14 +8814,14 @@
       <x:c r="U61" s="108"/>
       <x:c r="V61" s="102"/>
       <x:c r="W61" s="102"/>
-      <x:c r="X61" s="241"/>
-      <x:c r="Y61" s="242"/>
-      <x:c r="Z61" s="242"/>
-      <x:c r="AA61" s="242"/>
-      <x:c r="AB61" s="242"/>
-      <x:c r="AC61" s="242"/>
-      <x:c r="AD61" s="242"/>
-      <x:c r="AE61" s="246"/>
+      <x:c r="X61" s="243"/>
+      <x:c r="Y61" s="244"/>
+      <x:c r="Z61" s="244"/>
+      <x:c r="AA61" s="244"/>
+      <x:c r="AB61" s="244"/>
+      <x:c r="AC61" s="244"/>
+      <x:c r="AD61" s="244"/>
+      <x:c r="AE61" s="248"/>
       <x:c r="AF61" s="1"/>
       <x:c r="AG61" s="1"/>
       <x:c r="AH61" s="1"/>
@@ -8914,10 +8846,10 @@
     </x:row>
     <x:row r="62" spans="1:52" ht="30" customHeight="1">
       <x:c r="A62" s="9"/>
-      <x:c r="B62" s="139"/>
-      <x:c r="C62" s="189"/>
+      <x:c r="B62" s="141"/>
+      <x:c r="C62" s="191"/>
       <x:c r="D62" s="96" t="s">
-        <x:v>12</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E62" s="72"/>
       <x:c r="F62" s="1"/>
@@ -8946,9 +8878,9 @@
       <x:c r="AC62" s="1"/>
       <x:c r="AD62" s="1"/>
       <x:c r="AE62" s="1"/>
-      <x:c r="AF62" s="247"/>
-      <x:c r="AG62" s="248"/>
-      <x:c r="AH62" s="248"/>
+      <x:c r="AF62" s="243"/>
+      <x:c r="AG62" s="244"/>
+      <x:c r="AH62" s="244"/>
       <x:c r="AI62" s="249"/>
       <x:c r="AJ62" s="249"/>
       <x:c r="AK62" s="249"/>
@@ -8970,12 +8902,12 @@
     </x:row>
     <x:row r="63" spans="1:52" ht="30" customHeight="1">
       <x:c r="A63" s="9"/>
-      <x:c r="B63" s="140"/>
+      <x:c r="B63" s="142"/>
       <x:c r="C63" s="39" t="s">
-        <x:v>25</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D63" s="6" t="s">
-        <x:v>145</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E63" s="74"/>
       <x:c r="F63" s="3"/>
@@ -9018,7 +8950,7 @@
       <x:c r="AQ63" s="80"/>
       <x:c r="AR63" s="80"/>
       <x:c r="AS63" s="80"/>
-      <x:c r="AT63" s="250"/>
+      <x:c r="AT63" s="137"/>
       <x:c r="AU63" s="80"/>
       <x:c r="AV63" s="80"/>
       <x:c r="AW63" s="80"/>
@@ -9029,13 +8961,13 @@
     <x:row r="64" spans="1:52" ht="30" customHeight="1">
       <x:c r="A64" s="9"/>
       <x:c r="B64" s="29" t="s">
-        <x:v>20</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="C64" s="6" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D64" s="6" t="s">
-        <x:v>16</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E64" s="118"/>
       <x:c r="F64" s="119"/>
@@ -9079,23 +9011,23 @@
       <x:c r="AR64" s="124"/>
       <x:c r="AS64" s="124"/>
       <x:c r="AT64" s="124"/>
-      <x:c r="AU64" s="252"/>
-      <x:c r="AV64" s="252"/>
-      <x:c r="AW64" s="252"/>
+      <x:c r="AU64" s="250"/>
+      <x:c r="AV64" s="250"/>
+      <x:c r="AW64" s="250"/>
       <x:c r="AX64" s="124"/>
       <x:c r="AY64" s="124"/>
       <x:c r="AZ64" s="125"/>
     </x:row>
     <x:row r="65" spans="1:52" ht="30" customHeight="1">
       <x:c r="A65" s="9"/>
-      <x:c r="B65" s="137" t="s">
-        <x:v>5</x:v>
+      <x:c r="B65" s="139" t="s">
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C65" s="6" t="s">
-        <x:v>115</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="D65" s="6" t="s">
-        <x:v>124</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="E65" s="35"/>
       <x:c r="F65" s="8"/>
@@ -9142,18 +9074,18 @@
       <x:c r="AU65" s="27"/>
       <x:c r="AV65" s="27"/>
       <x:c r="AW65" s="27"/>
-      <x:c r="AX65" s="216"/>
-      <x:c r="AY65" s="216"/>
+      <x:c r="AX65" s="218"/>
+      <x:c r="AY65" s="218"/>
       <x:c r="AZ65" s="28"/>
     </x:row>
     <x:row r="66" spans="1:52" ht="16.75" customHeight="1">
       <x:c r="A66" s="9"/>
-      <x:c r="B66" s="138"/>
+      <x:c r="B66" s="140"/>
       <x:c r="C66" s="30" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D66" s="30" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E66" s="31"/>
       <x:c r="F66" s="31"/>
@@ -9202,7 +9134,7 @@
       <x:c r="AW66" s="32"/>
       <x:c r="AX66" s="32"/>
       <x:c r="AY66" s="32"/>
-      <x:c r="AZ66" s="251"/>
+      <x:c r="AZ66" s="138"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="110">
